--- a/SimulationStudyData/Model5/SimCase32_Zsim_SimRun1.xlsx
+++ b/SimulationStudyData/Model5/SimCase32_Zsim_SimRun1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diiim\Documents\GitHub\BayesianGMMs\SimulationStudyData\Model5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5208D759-CB02-4E18-8DE0-F09E76F14916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F6626D-6205-4892-94AE-E835FBE30DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,34 +425,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -463,60 +463,60 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -603,16 +603,16 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -626,42 +626,42 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -751,65 +751,65 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -873,34 +873,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -929,74 +929,74 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1004,31 +1004,31 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1065,34 +1065,34 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1103,48 +1103,48 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1153,53 +1153,53 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1225,66 +1225,66 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1321,7 +1321,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1330,57 +1330,57 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1417,86 +1417,86 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1513,98 +1513,98 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1615,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1641,39 +1641,39 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1705,34 +1705,34 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -1761,42 +1761,42 @@
         <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -1836,31 +1836,31 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -1871,33 +1871,33 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1961,34 +1961,34 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -2002,19 +2002,19 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2028,71 +2028,71 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2101,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -2113,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -2165,68 +2165,68 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -2261,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2290,10 +2290,10 @@
         <v>3</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2334,13 +2334,13 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -2412,22 +2412,22 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2441,86 +2441,86 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2537,28 +2537,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -2569,103 +2569,103 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -2729,194 +2729,194 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -2930,121 +2930,121 @@
         <v>3</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -3076,39 +3076,39 @@
         <v>3</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -3122,57 +3122,57 @@
         <v>3</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -3186,25 +3186,25 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
@@ -3224,42 +3224,42 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -3337,66 +3337,66 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -3404,57 +3404,57 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>3</v>
@@ -3509,22 +3509,22 @@
         <v>3</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -3538,25 +3538,25 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -3570,22 +3570,22 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -3596,36 +3596,36 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -3669,71 +3669,71 @@
         <v>3</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -3753,135 +3753,135 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -3908,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="J110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
@@ -3916,28 +3916,28 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111">
         <v>3</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4024,19 +4024,19 @@
         <v>3</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -4065,94 +4065,94 @@
         <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -4169,66 +4169,66 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -4242,10 +4242,10 @@
         <v>3</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -4271,13 +4271,13 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -4289,74 +4289,74 @@
         <v>3</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -4388,27 +4388,27 @@
         <v>3</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4425,74 +4425,74 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -4504,109 +4504,109 @@
         <v>3</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -4617,66 +4617,66 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
@@ -4740,39 +4740,39 @@
         <v>3</v>
       </c>
       <c r="J136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
@@ -4798,13 +4798,13 @@
         <v>3</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
@@ -4812,19 +4812,19 @@
         <v>3</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -4841,28 +4841,28 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>3</v>
@@ -4873,98 +4873,98 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
@@ -5013,62 +5013,62 @@
         <v>3</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -5080,147 +5080,147 @@
         <v>3</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
@@ -5234,74 +5234,74 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -5321,66 +5321,66 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
@@ -5417,98 +5417,98 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J160">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
@@ -5545,22 +5545,22 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -5577,34 +5577,34 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163">
         <v>3</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
@@ -5668,24 +5668,24 @@
         <v>3</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -5705,31 +5705,31 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J167">
         <v>2</v>
@@ -5737,13 +5737,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -5801,16 +5801,16 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -5854,45 +5854,45 @@
         <v>3</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
@@ -5918,77 +5918,77 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
@@ -5999,13 +5999,13 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F176">
         <v>3</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -6049,30 +6049,30 @@
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -6089,34 +6089,34 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
@@ -6165,27 +6165,27 @@
         <v>3</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -6217,34 +6217,34 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J183">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
@@ -6290,57 +6290,57 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
@@ -6348,31 +6348,31 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
@@ -6430,13 +6430,13 @@
         <v>3</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
@@ -6462,10 +6462,10 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>3</v>
@@ -6473,34 +6473,34 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
@@ -6540,95 +6540,95 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
@@ -6665,13 +6665,13 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -6697,34 +6697,34 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
@@ -6799,28 +6799,28 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J201">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
